--- a/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>PHAT</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,61 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -740,8 +747,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +782,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +817,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,28 +836,30 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F12" s="3">
         <v>4500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>82100</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -840,8 +867,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +902,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +937,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +972,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,37 +988,45 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F17" s="3">
         <v>6300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>84200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -975,28 +1034,34 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-84200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-500</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,8 +1073,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1017,36 +1084,42 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3600</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>-97000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1066,66 +1139,84 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-68100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-89000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
       </c>
       <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-500</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +1244,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1279,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-68100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-89000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-300</v>
       </c>
       <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-500</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-68100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-89000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-300</v>
       </c>
       <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-500</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,8 +1489,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1365,57 +1504,69 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>81300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>59800</v>
+      </c>
+      <c r="G32" s="3">
         <v>3600</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-68100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-89000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
       </c>
       <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-500</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1594,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-68100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-89000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
       </c>
       <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-500</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,23 +1703,25 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>256700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>243800</v>
+      </c>
+      <c r="F41" s="3">
         <v>74500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>82900</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1734,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,8 +1769,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1619,8 +1804,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,23 +1839,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,23 +1874,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>261800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>255600</v>
+      </c>
+      <c r="F46" s="3">
         <v>77700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>84500</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,8 +1909,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,19 +1944,25 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1764,8 +1979,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +2014,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,23 +2084,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
         <v>2000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +2119,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,23 +2154,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>263900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>257200</v>
+      </c>
+      <c r="F54" s="3">
         <v>79700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>84900</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2189,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,23 +2223,25 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,23 +2254,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>95200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>92700</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,23 +2289,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F59" s="3">
         <v>111800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>51600</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,23 +2324,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F60" s="3">
         <v>207500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>144800</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,23 +2359,29 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F61" s="3">
         <v>22600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>22400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2109,23 +2394,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F62" s="3">
         <v>2100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2429,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,23 +2534,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F66" s="3">
         <v>232200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>169300</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2569,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2654,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,23 +2724,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-276600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-256400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-158400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-90300</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2759,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,23 +2864,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>208700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>228000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-152500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-84400</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2899,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2934,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-68100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-89000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
       </c>
       <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-500</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +3028,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3234,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-7100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-6000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3288,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3389,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-25100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3443,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,37 +3579,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>192800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>113200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,33 +3649,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>169300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-8400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>82000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,66 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
-        <v>43373</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -753,8 +758,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,8 +796,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,31 +852,32 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E12" s="3">
         <v>15900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4500</v>
       </c>
-      <c r="G12" s="3">
-        <v>82100</v>
-      </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>81700</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+        <v>400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
@@ -873,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -943,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,34 +1017,35 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E17" s="3">
         <v>20400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6300</v>
       </c>
-      <c r="G17" s="3">
-        <v>84200</v>
-      </c>
       <c r="H17" s="3">
-        <v>500</v>
+        <v>83000</v>
       </c>
       <c r="I17" s="3">
-        <v>300</v>
+        <v>1200</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>500</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
@@ -1025,8 +1053,11 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1034,25 +1065,25 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-15700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-84200</v>
-      </c>
       <c r="H18" s="3">
-        <v>-500</v>
+        <v>-83000</v>
       </c>
       <c r="I18" s="3">
-        <v>-300</v>
+        <v>-1200</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3">
+        <v>-500</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
@@ -1060,8 +1091,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1084,25 +1119,25 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-81300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-59800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1110,8 +1145,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1119,19 +1157,19 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-97000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3">
+        <v>-1200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1145,34 +1183,37 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1180,34 +1221,37 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-98000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-68100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-89000</v>
-      </c>
       <c r="H23" s="3">
-        <v>-500</v>
+        <v>-87800</v>
       </c>
       <c r="I23" s="3">
-        <v>-300</v>
+        <v>-1300</v>
       </c>
       <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>-500</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1215,8 +1259,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1250,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,34 +1335,37 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-20100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-98000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-68100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-89000</v>
-      </c>
       <c r="H26" s="3">
-        <v>-500</v>
+        <v>-87800</v>
       </c>
       <c r="I26" s="3">
-        <v>-300</v>
+        <v>-1300</v>
       </c>
       <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>-500</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1320,34 +1373,37 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-20100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-98000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-68100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-89000</v>
-      </c>
       <c r="H27" s="3">
-        <v>-500</v>
+        <v>-87800</v>
       </c>
       <c r="I27" s="3">
-        <v>-300</v>
+        <v>-1300</v>
       </c>
       <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>-500</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1355,8 +1411,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1504,25 +1575,25 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>81300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>59800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1530,34 +1601,37 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-20100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-98000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-68100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-89000</v>
-      </c>
       <c r="H33" s="3">
-        <v>-500</v>
+        <v>-87800</v>
       </c>
       <c r="I33" s="3">
-        <v>-300</v>
+        <v>-1300</v>
       </c>
       <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>-500</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1565,8 +1639,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,34 +1677,37 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-20100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-98000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-68100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-89000</v>
-      </c>
       <c r="H35" s="3">
-        <v>-500</v>
+        <v>-87800</v>
       </c>
       <c r="I35" s="3">
-        <v>-300</v>
+        <v>-1300</v>
       </c>
       <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>-500</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1635,48 +1715,54 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
-        <v>43373</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,26 +1792,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>247300</v>
+      </c>
+      <c r="E41" s="3">
         <v>256700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>243800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>74500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>82900</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,8 +1828,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,8 +1866,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1810,8 +1904,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1845,26 +1942,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>5200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,26 +1980,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>248700</v>
+      </c>
+      <c r="E46" s="3">
         <v>261800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>255600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>77700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>84500</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,8 +2018,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1950,22 +2056,25 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1985,8 +2094,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2099,17 +2220,17 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
+        <v>400</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,26 +2284,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>252400</v>
+      </c>
+      <c r="E54" s="3">
         <v>263900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>257200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>79700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>84900</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,26 +2356,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,26 +2392,29 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>95200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>92700</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2295,26 +2430,29 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>111800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>51600</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,26 +2468,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>207500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>144800</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,26 +2506,29 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E61" s="3">
         <v>45900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>22800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2400,25 +2544,28 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E62" s="3">
         <v>4700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2100</v>
       </c>
       <c r="G62" s="3">
         <v>2100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>2100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2435,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,26 +2696,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E66" s="3">
         <v>55200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>29200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>232200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>169300</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,26 +2902,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-297700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-276600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-256400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-158400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-90300</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,26 +3054,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>188400</v>
+      </c>
+      <c r="E76" s="3">
         <v>208700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>228000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-152500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-84400</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,74 +3130,80 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
-        <v>43373</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-20100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-98000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-68100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-89000</v>
-      </c>
       <c r="H81" s="3">
-        <v>-500</v>
+        <v>-87800</v>
       </c>
       <c r="I81" s="3">
-        <v>-300</v>
+        <v>-1300</v>
       </c>
       <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>-500</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3015,8 +3211,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3039,10 +3239,10 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -3050,14 +3250,14 @@
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3065,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-23400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7100</v>
       </c>
-      <c r="G89" s="3">
-        <v>-6000</v>
-      </c>
       <c r="H89" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,20 +3511,21 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3316,8 +3538,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3325,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,34 +3623,37 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-25100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3430,8 +3661,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,43 +3829,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>25000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>192800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>113200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1100</v>
       </c>
-      <c r="I100" s="3">
-        <v>300</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E102" s="3">
         <v>12900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>169300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-8400</v>
       </c>
-      <c r="G102" s="3">
-        <v>82000</v>
-      </c>
       <c r="H102" s="3">
+        <v>82800</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>PHAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -761,8 +765,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,34 +866,35 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E12" s="3">
         <v>14900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>81700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
+      <c r="K12" s="3">
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,37 +1044,38 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E17" s="3">
         <v>20000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>83000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="L17" s="3">
+        <v>500</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
@@ -1056,8 +1083,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,28 +1095,28 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-20400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-83000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-500</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="L18" s="3">
+        <v>-500</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
@@ -1094,8 +1124,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1119,28 +1153,28 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-81300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-59800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3600</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1148,8 +1182,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1157,23 +1194,23 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-19400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-97000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1186,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1195,28 +1235,28 @@
         <v>1300</v>
       </c>
       <c r="E22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1224,37 +1264,40 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-98000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-68100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-87800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-500</v>
       </c>
       <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>-500</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1262,8 +1305,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,37 +1387,40 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-98000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-68100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-87800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-500</v>
       </c>
       <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>-500</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1376,37 +1428,40 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-21100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-98000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-68100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-87800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-500</v>
       </c>
       <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>-500</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1414,8 +1469,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1575,28 +1645,28 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>81300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>59800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3600</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1604,37 +1674,40 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-21100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-98000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-68100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-87800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-500</v>
       </c>
       <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>-500</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1642,8 +1715,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,37 +1756,40 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-21100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-98000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-68100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-87800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-500</v>
       </c>
       <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>-500</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1718,51 +1797,57 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,29 +1879,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>226400</v>
+      </c>
+      <c r="E41" s="3">
         <v>247300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>256700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>243800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>74500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>82900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,8 +1959,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,29 +2041,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,29 +2082,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>227200</v>
+      </c>
+      <c r="E46" s="3">
         <v>248700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>261800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>255600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>77700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>84500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,25 +2164,28 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E48" s="3">
         <v>3400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2223,17 +2343,17 @@
         <v>400</v>
       </c>
       <c r="F52" s="3">
+        <v>400</v>
+      </c>
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,29 +2410,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>230900</v>
+      </c>
+      <c r="E54" s="3">
         <v>252400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>263900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>257200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>79700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>84900</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,29 +2487,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,29 +2526,32 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>95200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>92700</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2433,29 +2567,32 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E59" s="3">
         <v>7000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>111800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>51600</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,29 +2608,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E60" s="3">
         <v>13300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>207500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>144800</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,29 +2649,32 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E61" s="3">
         <v>44900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>45900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>22800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>22600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>22400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2547,28 +2690,31 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E62" s="3">
         <v>5900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2100</v>
       </c>
       <c r="H62" s="3">
         <v>2100</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="I62" s="3">
+        <v>2100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,29 +2854,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E66" s="3">
         <v>64000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>55200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>29200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>232200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>169300</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,29 +3076,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-331800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-297700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-276600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-256400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-158400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-90300</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,29 +3240,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>156400</v>
+      </c>
+      <c r="E76" s="3">
         <v>188400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>208700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>228000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-152500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-84400</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,80 +3322,86 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-21100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-98000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-68100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-87800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-500</v>
       </c>
       <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>-500</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3214,8 +3409,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3242,25 +3441,25 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,23 +3732,24 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3762,8 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,37 +3853,40 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-25100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3841,37 +4087,40 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>25000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>192800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>113200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>12900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>169300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-8400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>82800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
   <si>
     <t>PHAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,77 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,8 +775,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -809,8 +822,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,8 +869,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,40 +892,42 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>41700</v>
+      </c>
+      <c r="F12" s="3">
         <v>25800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>14900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>15900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>12700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>4500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>81700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
@@ -908,8 +935,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +982,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1029,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1076,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,49 +1096,57 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>52400</v>
+      </c>
+      <c r="F17" s="3">
         <v>32800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>20000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>20400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>15700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>6300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>83000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,40 +1154,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-20000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-20400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-15700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-6300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-83000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1209,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,40 +1220,46 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-81300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-59800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3600</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,29 +1267,29 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-19800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-19400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-97000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1226,8 +1299,14 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1238,78 +1317,90 @@
         <v>1300</v>
       </c>
       <c r="F22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-34100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-21100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-20100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-98000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-68100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-87800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1440,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1487,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-34100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-21100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-20100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-98000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-68100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-87800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-34100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-21100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-20100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-98000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-68100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-87800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1769,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1645,81 +1784,93 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>81300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>59800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3600</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-34100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-21100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-20100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-98000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-68100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-87800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1910,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-34100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-21100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-20100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-98000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-68100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-87800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,35 +2051,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>287500</v>
+      </c>
+      <c r="F41" s="3">
         <v>226400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>247300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>256700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>243800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>74500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>82900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,8 +2094,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,8 +2141,14 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2003,8 +2188,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,35 +2235,41 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>11800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>3200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,35 +2282,41 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>242800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>291400</v>
+      </c>
+      <c r="F46" s="3">
         <v>227200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>248700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>261800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>255600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>77700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>84500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2329,14 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,31 +2376,37 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E48" s="3">
         <v>3400</v>
       </c>
       <c r="F48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2208,8 +2423,14 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2470,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2564,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2346,20 +2585,20 @@
         <v>400</v>
       </c>
       <c r="G52" s="3">
+        <v>400</v>
+      </c>
+      <c r="H52" s="3">
+        <v>400</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>2000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2372,8 +2611,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,35 +2658,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>246400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>295100</v>
+      </c>
+      <c r="F54" s="3">
         <v>230900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>252400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>263900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>257200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>79700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>84900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2705,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,35 +2747,37 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F57" s="3">
         <v>4800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2529,35 +2790,41 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F58" s="3">
         <v>5600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1400</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>95200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>92700</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2570,35 +2837,41 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>31400</v>
+      </c>
+      <c r="F59" s="3">
         <v>17300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>111800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>51600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,35 +2884,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>55500</v>
+      </c>
+      <c r="F60" s="3">
         <v>27700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>13300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>207500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>144800</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,35 +2931,41 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>39600</v>
+      </c>
+      <c r="F61" s="3">
         <v>41100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>44900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>45900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>22800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>22600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>22400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2693,35 +2978,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F62" s="3">
         <v>5800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>4700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2100</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +3025,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,35 +3166,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>100800</v>
+      </c>
+      <c r="F66" s="3">
         <v>74500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>64000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>55200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>29200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>232200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>169300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3213,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,35 +3420,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-420300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-385500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-331800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-297700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-276600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-256400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-158400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-90300</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3467,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,35 +3608,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>164300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>194300</v>
+      </c>
+      <c r="F76" s="3">
         <v>156400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>188400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>208700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>228000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-152500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-84400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3655,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3702,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-53700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-34100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-21100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-20100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-98000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-68100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-87800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3824,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3444,34 +3841,40 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4102,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-49800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-20700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-9300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-11400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-23400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-7100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-5200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +4172,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3745,16 +4186,16 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-100</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3765,17 +4206,23 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4309,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3868,37 +4327,43 @@
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-25100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4563,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>89500</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>25000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>192800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>113200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4657,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>61100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-20900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-9400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>12900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>169300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-8400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>82800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
   <si>
     <t>PHAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -781,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,43 +907,44 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E12" s="3">
         <v>20600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>41700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>12700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>81700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
+      <c r="N12" s="3">
+        <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,46 +1124,47 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E17" s="3">
         <v>33600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>52400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>32800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>83000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+      <c r="O17" s="3">
+        <v>500</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
@@ -1145,8 +1172,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,37 +1184,37 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-52400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-32800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-20000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-20400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-15700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-83000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-500</v>
       </c>
       <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
+      <c r="O18" s="3">
+        <v>-500</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
@@ -1192,8 +1222,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1226,31 +1260,31 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-81300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-59800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1258,8 +1292,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,32 +1304,32 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-52300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-32700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-19800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-19400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-97000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1323,28 +1363,28 @@
         <v>1300</v>
       </c>
       <c r="H22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
@@ -1352,46 +1392,49 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-34800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-53700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-34100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-98000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-68100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-87800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-500</v>
       </c>
       <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="O23" s="3">
+        <v>-500</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
@@ -1399,8 +1442,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,46 +1542,49 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-34800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-53700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-34100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-98000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-68100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-87800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-500</v>
       </c>
       <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="O26" s="3">
+        <v>-500</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
@@ -1540,46 +1592,49 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-34800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-53700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-34100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-98000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-68100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-87800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-500</v>
       </c>
       <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3">
+        <v>-500</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
@@ -1587,8 +1642,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1790,31 +1860,31 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>81300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>59800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1822,46 +1892,49 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-34800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-53700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-34100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-98000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-68100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-87800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-500</v>
       </c>
       <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3">
+        <v>-500</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
@@ -1869,8 +1942,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,46 +1992,49 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-34800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-53700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-34100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-98000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-68100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-87800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-500</v>
       </c>
       <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3">
+        <v>-500</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
@@ -1963,60 +2042,66 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,38 +2139,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>209700</v>
+      </c>
+      <c r="E41" s="3">
         <v>238000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>287500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>226400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>247300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>256700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>243800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>74500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>82900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,38 +2337,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
         <v>4800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,38 +2387,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>211300</v>
+      </c>
+      <c r="E46" s="3">
         <v>242800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>291400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>227200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>248700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>261800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>255600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>77700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>84500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,34 +2487,37 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,13 +2687,16 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
@@ -2591,17 +2711,17 @@
         <v>400</v>
       </c>
       <c r="I52" s="3">
+        <v>400</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,38 +2787,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>214600</v>
+      </c>
+      <c r="E54" s="3">
         <v>246400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>295100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>230900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>252400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>263900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>257200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>79700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>84900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,38 +2879,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E57" s="3">
         <v>10900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>16800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,38 +2927,41 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E58" s="3">
         <v>11800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>95200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>92700</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2843,38 +2977,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E59" s="3">
         <v>18200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>31400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>111800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>51600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2890,38 +3027,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E60" s="3">
         <v>40800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>55500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>207500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>144800</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2937,38 +3077,41 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E61" s="3">
         <v>35600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>39600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>41100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>44900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>45900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>22800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2984,37 +3127,40 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E62" s="3">
         <v>5600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2100</v>
       </c>
       <c r="K62" s="3">
         <v>2100</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="L62" s="3">
+        <v>2100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,38 +3327,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E66" s="3">
         <v>82000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>100800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>74500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>64000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>55200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>29200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>232200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>169300</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,38 +3597,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-456900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-420300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-385500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-331800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-297700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-276600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-256400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-158400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-90300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,38 +3797,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>132100</v>
+      </c>
+      <c r="E76" s="3">
         <v>164300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>194300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>156400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>188400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>208700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>228000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-152500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-84400</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,98 +3897,104 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-34800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-53700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-34100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-98000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-68100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-87800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-500</v>
       </c>
       <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3">
+        <v>-500</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
@@ -3807,8 +4002,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3847,25 +4046,25 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-49800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-28200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-11400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,32 +4394,33 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4212,8 +4433,8 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,46 +4542,49 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-25100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>89500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>25000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>192800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>113200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-49500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>61100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-20900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>169300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>82800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>PHAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,46 +921,47 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E12" s="3">
         <v>21600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>41700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>25800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>12700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>81700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>400</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
+      <c r="O12" s="3">
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,49 +1151,50 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E17" s="3">
         <v>35300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>33600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>52400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>32800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>20000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>83000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+      <c r="P17" s="3">
+        <v>500</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,40 +1214,40 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-33600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-52400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-32800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-20000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-15700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-83000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-500</v>
       </c>
       <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
+      <c r="P18" s="3">
+        <v>-500</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1263,31 +1297,31 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-81300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-59800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3600</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,35 +1341,35 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-33400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-52300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-32700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-19800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-19400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-97000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1345,13 +1382,16 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="E22" s="3">
         <v>1300</v>
@@ -1366,28 +1406,28 @@
         <v>1300</v>
       </c>
       <c r="I22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J22" s="3">
         <v>700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
@@ -1395,49 +1435,52 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-36600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-34800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-53700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-34100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-98000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-68100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-87800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-500</v>
       </c>
       <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="P23" s="3">
+        <v>-500</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,49 +1594,52 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-36600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-34800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-53700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-34100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-98000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-68100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-87800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-500</v>
       </c>
       <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="P26" s="3">
+        <v>-500</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
@@ -1595,49 +1647,52 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-36600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-34800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-53700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-34100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-98000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-68100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-87800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-500</v>
       </c>
       <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3">
+        <v>-500</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1863,31 +1933,31 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>81300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>59800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3600</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1895,49 +1965,52 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-36600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-53700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-34100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-98000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-68100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-87800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-500</v>
       </c>
       <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3">
+        <v>-500</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,49 +2071,52 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-36600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-53700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-34100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-98000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-68100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-87800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-500</v>
       </c>
       <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3">
+        <v>-500</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,41 +2226,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>224600</v>
+      </c>
+      <c r="E41" s="3">
         <v>209700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>238000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>287500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>226400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>247300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>256700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>243800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>74500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>82900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,41 +2436,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1600</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2390,41 +2489,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>225300</v>
+      </c>
+      <c r="E46" s="3">
         <v>211300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>242800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>291400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>227200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>248700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>261800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>255600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>77700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>84500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,37 +2595,40 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
         <v>3000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2699,7 +2819,7 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -2714,17 +2834,17 @@
         <v>400</v>
       </c>
       <c r="J52" s="3">
+        <v>400</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,41 +2913,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>228400</v>
+      </c>
+      <c r="E54" s="3">
         <v>214600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>246400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>295100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>230900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>252400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>263900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>257200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>79700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>84900</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,41 +3010,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E57" s="3">
         <v>5400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,41 +3061,44 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>10300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1400</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>95200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>92700</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2980,41 +3114,44 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E59" s="3">
         <v>23900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>18200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>31400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>111800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>51600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,41 +3167,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E60" s="3">
         <v>39600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>40800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>55500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>207500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>144800</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3080,41 +3220,44 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E61" s="3">
         <v>37300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>35600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>39600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>41100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>44900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>45900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>22800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3130,40 +3273,43 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E62" s="3">
         <v>5500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>2100</v>
       </c>
       <c r="L62" s="3">
         <v>2100</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>2100</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,41 +3485,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>124900</v>
+      </c>
+      <c r="E66" s="3">
         <v>82500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>100800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>74500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>64000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>55200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>232200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>169300</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,41 +3771,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-493500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-456900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-420300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-385500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-331800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-297700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-276600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-256400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-158400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-90300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,41 +3983,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>103500</v>
+      </c>
+      <c r="E76" s="3">
         <v>132100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>164300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>194300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>156400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>188400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>208700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>228000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-152500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-84400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,104 +4089,110 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-36600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-53700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-34100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-98000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-68100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-87800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-500</v>
       </c>
       <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3">
+        <v>-500</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4049,25 +4248,25 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-28400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-49800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-28200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-23400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4404,26 +4625,26 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4436,8 +4657,8 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4554,40 +4784,40 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-25100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>89500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>25000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>192800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>113200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-28300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-49500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>61100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-20900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>12900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>169300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>82800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
   <si>
     <t>PHAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,88 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -795,8 +798,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +854,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,49 +934,50 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E12" s="3">
         <v>16600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>21600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>41700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>81700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>400</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
+      <c r="P12" s="3">
+        <v>0</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
@@ -975,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1037,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>2000</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1081,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,52 +1177,53 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33100</v>
+        <v>33000</v>
       </c>
       <c r="E17" s="3">
+        <v>35100</v>
+      </c>
+      <c r="F17" s="3">
         <v>35300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>52400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>32800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>83000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
+      <c r="Q17" s="3">
+        <v>500</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
@@ -1205,8 +1231,11 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,43 +1243,43 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-35300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-33600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-52400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-32800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-20400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-83000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-500</v>
       </c>
       <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
+      <c r="Q18" s="3">
+        <v>-500</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
@@ -1258,8 +1287,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1311,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1300,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-81300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-59800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3600</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
@@ -1332,8 +1365,11 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,38 +1377,38 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-35200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-33400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-52300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-32700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-19800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-19400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-97000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1385,16 +1421,19 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E22" s="3">
         <v>1500</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1300</v>
       </c>
       <c r="F22" s="3">
         <v>1300</v>
@@ -1409,28 +1448,28 @@
         <v>1300</v>
       </c>
       <c r="J22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1100</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
@@ -1438,52 +1477,55 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-36700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-36600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-34800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-53700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-34100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-98000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-68100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-87800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-500</v>
       </c>
       <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
+      <c r="Q23" s="3">
+        <v>-500</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
@@ -1491,8 +1533,11 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1589,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,52 +1645,55 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-36700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-36600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-34800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-53700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-34100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-21100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-98000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-68100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-87800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-500</v>
       </c>
       <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
+      <c r="Q26" s="3">
+        <v>-500</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
@@ -1650,52 +1701,55 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-36700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-36600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-34800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-53700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-34100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-21100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-98000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-68100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-87800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-500</v>
       </c>
       <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+      <c r="Q27" s="3">
+        <v>-500</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
@@ -1703,8 +1757,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1981,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1936,31 +2005,31 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>81300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>59800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3600</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
@@ -1968,52 +2037,55 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-36700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-36600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-34800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-53700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-34100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-21100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-98000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-68100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-87800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-500</v>
       </c>
       <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+      <c r="Q33" s="3">
+        <v>-500</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
@@ -2021,8 +2093,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,52 +2149,55 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-36700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-36600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-34800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-53700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-34100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-21100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-98000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-68100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-87800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-500</v>
       </c>
       <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+      <c r="Q35" s="3">
+        <v>-500</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
@@ -2127,66 +2205,72 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,44 +2312,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>183300</v>
+      </c>
+      <c r="E41" s="3">
         <v>224600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>209700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>238000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>287500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>226400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>247300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>256700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>243800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>74500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>82900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2280,8 +2366,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2422,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2478,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,44 +2534,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1600</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,44 +2590,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>186500</v>
+      </c>
+      <c r="E46" s="3">
         <v>225300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>211300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>242800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>291400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>227200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>248700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>261800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>255600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>77700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>84500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2545,8 +2646,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,40 +2702,43 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2651,8 +2758,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2814,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2926,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2822,7 +2941,7 @@
         <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
@@ -2837,17 +2956,17 @@
         <v>400</v>
       </c>
       <c r="K52" s="3">
+        <v>400</v>
+      </c>
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,44 +3038,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>189400</v>
+      </c>
+      <c r="E54" s="3">
         <v>228400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>214600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>246400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>295100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>230900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>252400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>263900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>257200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>79700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>84900</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,44 +3140,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E57" s="3">
         <v>5600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>16800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3064,8 +3194,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,35 +3206,35 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>10300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>95200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>92700</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3117,44 +3250,47 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E59" s="3">
         <v>22200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>18200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>31400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>17300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>111800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>51600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3170,44 +3306,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E60" s="3">
         <v>27800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>39600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>40800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>55500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>27700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>207500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>144800</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3223,44 +3362,47 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E61" s="3">
         <v>88300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>37300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>35600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>39600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>41100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>44900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>45900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3276,43 +3418,46 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E62" s="3">
         <v>8800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2700</v>
-      </c>
-      <c r="L62" s="3">
-        <v>2100</v>
       </c>
       <c r="M62" s="3">
         <v>2100</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>2100</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3329,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,44 +3642,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>117300</v>
+      </c>
+      <c r="E66" s="3">
         <v>124900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>82500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>82000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>100800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>74500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>64000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>55200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>232200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>169300</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3541,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,44 +3944,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-529400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-493500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-456900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-420300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-385500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-331800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-297700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-276600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-256400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-158400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-90300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3827,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,44 +4168,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E76" s="3">
         <v>103500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>132100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>164300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>194300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>156400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>188400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>208700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>228000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-152500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-84400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4039,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,110 +4280,116 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-36700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-36600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-34800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-53700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-34100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-21100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-98000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-68100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-87800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-500</v>
       </c>
       <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+      <c r="Q81" s="3">
+        <v>-500</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
@@ -4203,8 +4397,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4251,25 +4449,25 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4277,8 +4475,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-29100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-28400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-49800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-28200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-20700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-23400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,38 +4835,39 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4660,8 +4880,8 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4669,8 +4889,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,52 +5001,55 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-25100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
@@ -4828,8 +5057,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5303,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>44000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>89500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>25000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>192800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>113200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="E102" s="3">
         <v>14900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-28300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-49500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>61100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-20900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>169300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>82800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>PHAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,92 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -857,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,52 +948,53 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E12" s="3">
         <v>13600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>16600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>21600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>41700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>81700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
+      <c r="Q12" s="3">
+        <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
@@ -991,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,20 +1064,23 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1073,8 +1093,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1103,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,55 +1204,56 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E17" s="3">
         <v>33000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>35100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>35300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>33600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>52400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>32800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>83000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>500</v>
       </c>
       <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
+      <c r="R17" s="3">
+        <v>500</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
@@ -1234,8 +1261,11 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1243,46 +1273,46 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-35100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-35300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-33600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-52400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-32800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-20000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-20400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-83000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-500</v>
       </c>
       <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
+      <c r="R18" s="3">
+        <v>-500</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
@@ -1290,8 +1320,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1336,31 +1370,31 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-81300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-59800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
@@ -1368,8 +1402,11 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1377,41 +1414,41 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-35000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-35200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-33400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-52300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-32700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-19800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-19400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-97000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1424,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1433,10 +1473,10 @@
         <v>2800</v>
       </c>
       <c r="E22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F22" s="3">
         <v>1500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1300</v>
       </c>
       <c r="G22" s="3">
         <v>1300</v>
@@ -1451,28 +1491,28 @@
         <v>1300</v>
       </c>
       <c r="K22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
@@ -1480,55 +1520,58 @@
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-35800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-36700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-36600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-34800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-53700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-34100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-98000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-68100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-87800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-500</v>
       </c>
       <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
+      <c r="R23" s="3">
+        <v>-500</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
@@ -1536,8 +1579,11 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,55 +1697,58 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-35800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-36700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-36600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-34800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-53700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-34100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-98000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-68100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-87800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-500</v>
       </c>
       <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
+      <c r="R26" s="3">
+        <v>-500</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
@@ -1704,55 +1756,58 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-35800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-36700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-36600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-34800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-53700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-34100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-21100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-98000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-68100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-87800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-500</v>
       </c>
       <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
+      <c r="R27" s="3">
+        <v>-500</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
@@ -1760,8 +1815,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2008,31 +2078,31 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>81300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>59800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
@@ -2040,55 +2110,58 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-35800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-36700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-36600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-34800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-53700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-34100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-21100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-98000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-68100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-87800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-500</v>
       </c>
       <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
+      <c r="R33" s="3">
+        <v>-500</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
@@ -2096,8 +2169,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,55 +2228,58 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-35800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-36700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-36600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-34800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-53700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-34100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-21100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-98000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-68100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-87800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-500</v>
       </c>
       <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
+      <c r="R35" s="3">
+        <v>-500</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
@@ -2208,69 +2287,75 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,47 +2399,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>138100</v>
+      </c>
+      <c r="E41" s="3">
         <v>183300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>224600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>209700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>238000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>287500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>226400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>247300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>256700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>243800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>74500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>82900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,8 +2456,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2481,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,47 +2633,50 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E45" s="3">
         <v>3300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,47 +2692,50 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E46" s="3">
         <v>186500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>225300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>211300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>242800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>291400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>227200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>248700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>261800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>255600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>77700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>84500</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,8 +2751,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,43 +2810,46 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -2761,8 +2869,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,13 +3046,16 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
@@ -2944,7 +3064,7 @@
         <v>300</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -2959,17 +3079,17 @@
         <v>400</v>
       </c>
       <c r="L52" s="3">
+        <v>400</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,47 +3164,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E54" s="3">
         <v>189400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>228400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>214600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>246400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>295100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>230900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>252400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>263900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>257200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>79700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>84900</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,47 +3271,48 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>5200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>16800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3328,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3209,35 +3343,35 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>10300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1400</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>95200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>92700</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3253,47 +3387,50 @@
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E59" s="3">
         <v>13800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>22200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>23900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>18200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>31400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>17300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>111800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>51600</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3309,47 +3446,50 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E60" s="3">
         <v>18900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>27800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>39600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>40800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>55500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>27700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>207500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>144800</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3365,47 +3505,50 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E61" s="3">
         <v>89700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>88300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>37300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>35600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>39600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>41100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>44900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>45900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3421,46 +3564,49 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E62" s="3">
         <v>8700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>2100</v>
       </c>
       <c r="N62" s="3">
         <v>2100</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
+      <c r="O62" s="3">
+        <v>2100</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,47 +3800,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E66" s="3">
         <v>117300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>124900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>82500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>82000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>100800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>74500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>64000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>55200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>232200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>169300</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,47 +4118,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-570000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-529400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-493500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-456900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-420300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-385500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-331800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-297700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-276600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-256400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-158400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-90300</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,47 +4354,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E76" s="3">
         <v>72200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>103500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>132100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>164300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>194300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>156400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>188400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>208700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>228000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-152500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-84400</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,116 +4472,122 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-35800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-36700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-36600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-34800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-53700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-34100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-21100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-98000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-68100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-87800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-500</v>
       </c>
       <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
+      <c r="R81" s="3">
+        <v>-500</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
@@ -4400,8 +4595,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4452,25 +4651,25 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -4478,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-41400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-29100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-28400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-49800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-28200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-20700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-23400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4845,32 +5066,32 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4883,8 +5104,8 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4892,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5013,46 +5243,46 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-25100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
@@ -5060,8 +5290,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>44000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>89500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>25000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>192800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>113200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-41400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-28300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-49500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>61100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-20900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>169300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>82800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>PHAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,55 +962,56 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E12" s="3">
         <v>17700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>16600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>41700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>25800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>81700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
+      <c r="R12" s="3">
+        <v>0</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,23 +1084,26 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1096,8 +1116,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,58 +1231,59 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E17" s="3">
         <v>37900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>33000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>35100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>35300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>33600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>52400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>32800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>83000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>500</v>
       </c>
       <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
+      <c r="S17" s="3">
+        <v>500</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
@@ -1264,8 +1291,11 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,49 +1303,49 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-33000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-35100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-35300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-33600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-52400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-32800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-20000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-20400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-15700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-83000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-500</v>
       </c>
       <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
+      <c r="S18" s="3">
+        <v>-500</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
@@ -1323,8 +1353,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1373,31 +1407,31 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-81300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-59800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3600</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,44 +1451,44 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-32900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-35000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-35200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-33400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-52300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-32700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-19800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-19400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-97000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1464,22 +1501,25 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2800</v>
+        <v>5700</v>
       </c>
       <c r="E22" s="3">
         <v>2800</v>
       </c>
       <c r="F22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G22" s="3">
         <v>1500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1300</v>
       </c>
       <c r="H22" s="3">
         <v>1300</v>
@@ -1494,28 +1534,28 @@
         <v>1300</v>
       </c>
       <c r="L22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
@@ -1523,58 +1563,61 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-40700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-35800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-36700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-36600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-34800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-53700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-34100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-21100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-98000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-68100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-87800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-500</v>
       </c>
       <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
+      <c r="S23" s="3">
+        <v>-500</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
@@ -1582,8 +1625,11 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,58 +1749,61 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-40700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-35800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-36700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-36600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-34800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-53700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-34100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-20100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-98000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-68100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-87800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-500</v>
       </c>
       <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
+      <c r="S26" s="3">
+        <v>-500</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
@@ -1759,58 +1811,61 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-40700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-35800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-36700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-36600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-34800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-53700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-34100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-20100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-98000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-68100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-87800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-500</v>
       </c>
       <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
+      <c r="S27" s="3">
+        <v>-500</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
@@ -1818,8 +1873,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2081,31 +2151,31 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>81300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>59800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3600</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
@@ -2113,58 +2183,61 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-40700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-35800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-36700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-36600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-34800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-53700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-34100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-20100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-98000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-68100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-87800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-500</v>
       </c>
       <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
+      <c r="S33" s="3">
+        <v>-500</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
@@ -2172,8 +2245,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,58 +2307,61 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-40700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-35800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-36700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-36600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-34800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-53700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-34100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-20100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-98000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-68100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-87800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-500</v>
       </c>
       <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
+      <c r="S35" s="3">
+        <v>-500</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
@@ -2290,72 +2369,78 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,50 +2486,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>207400</v>
+      </c>
+      <c r="E41" s="3">
         <v>138100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>183300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>224600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>209700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>238000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>287500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>226400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>247300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>256700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>243800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>74500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>82900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,50 +2732,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>7700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>5200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1600</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,50 +2794,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>209300</v>
+      </c>
+      <c r="E46" s="3">
         <v>145700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>186500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>225300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>211300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>242800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>291400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>227200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>248700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>261800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>255600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>77700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>84500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,46 +2918,49 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1400</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3058,7 +3178,7 @@
         <v>800</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
@@ -3067,7 +3187,7 @@
         <v>300</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
@@ -3082,17 +3202,17 @@
         <v>400</v>
       </c>
       <c r="M52" s="3">
+        <v>400</v>
+      </c>
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,50 +3290,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>213500</v>
+      </c>
+      <c r="E54" s="3">
         <v>149000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>189400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>228400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>214600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>246400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>295100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>230900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>252400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>263900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>257200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>79700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>84900</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,50 +3402,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>16800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3346,35 +3480,35 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>10300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>95200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>92700</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3390,50 +3524,53 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E59" s="3">
         <v>8500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>22200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>23900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>18200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>31400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>17300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>111800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>51600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3449,50 +3586,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E60" s="3">
         <v>11400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>27800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>39600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>40800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>55500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>27700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>207500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>144800</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3508,50 +3648,53 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>190500</v>
+      </c>
+      <c r="E61" s="3">
         <v>91000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>89700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>88300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>37300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>35600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>39600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>41100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>44900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>45900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3567,49 +3710,52 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E62" s="3">
         <v>8600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2700</v>
-      </c>
-      <c r="N62" s="3">
-        <v>2100</v>
       </c>
       <c r="O62" s="3">
         <v>2100</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
+      <c r="P62" s="3">
+        <v>2100</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,50 +3958,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>220500</v>
+      </c>
+      <c r="E66" s="3">
         <v>111000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>117300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>124900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>82500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>82000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>100800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>74500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>64000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>55200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>232200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>169300</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,50 +4292,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-621000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-570000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-529400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-493500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-456900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-420300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-385500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-331800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-297700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-276600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-256400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-158400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-90300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,50 +4540,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E76" s="3">
         <v>38000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>72200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>103500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>132100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>164300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>194300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>156400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>188400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>208700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>228000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-152500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-84400</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,122 +4664,128 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-40700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-35800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-36700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-36600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-34800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-53700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-34100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-20100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-98000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-68100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-87800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-500</v>
       </c>
       <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
+      <c r="S81" s="3">
+        <v>-500</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
@@ -4598,8 +4793,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4654,25 +4853,25 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-45100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-41400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-29100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-28400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-49800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-28200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-20700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-23400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,44 +5277,45 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5107,8 +5328,8 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,58 +5461,61 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-25100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>44000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>89500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>25000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>192800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>113200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>1100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-45200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-41400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-28300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-49500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>61100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-20900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>169300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>82800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>PHAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,58 +976,59 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E12" s="3">
         <v>18800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>13600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>41700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>25800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>15900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>12700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>81700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
+      <c r="S12" s="3">
+        <v>0</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1098,15 +1118,15 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,8 +1139,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,61 +1258,62 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E17" s="3">
         <v>45400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>37900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>35100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>33600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>52400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>32800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>83000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>500</v>
       </c>
       <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
+      <c r="T17" s="3">
+        <v>500</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
@@ -1294,8 +1321,11 @@
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,52 +1333,52 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-37900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-33000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-35100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-35300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-33600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-52400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-32800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-20000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-20400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-15700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-83000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-500</v>
       </c>
       <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
+      <c r="T18" s="3">
+        <v>-500</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,7 +1423,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1410,31 +1444,31 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-81300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-59800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,47 +1488,47 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-37800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-32900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-35000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-35200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-33400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-52300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-32700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-19800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-19400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-97000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1200</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1504,25 +1541,28 @@
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E22" s="3">
         <v>5700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2800</v>
       </c>
       <c r="F22" s="3">
         <v>2800</v>
       </c>
       <c r="G22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H22" s="3">
         <v>1500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1300</v>
       </c>
       <c r="I22" s="3">
         <v>1300</v>
@@ -1537,28 +1577,28 @@
         <v>1300</v>
       </c>
       <c r="M22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
@@ -1566,61 +1606,64 @@
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-50900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-40700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-35800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-36700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-36600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-34800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-53700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-34100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-21100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-98000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-68100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-87800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-500</v>
       </c>
       <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
+      <c r="T23" s="3">
+        <v>-500</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,61 +1801,64 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-50900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-40700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-35800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-36700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-36600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-34800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-53700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-34100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-21100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-20100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-98000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-68100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-87800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-500</v>
       </c>
       <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
+      <c r="T26" s="3">
+        <v>-500</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
@@ -1814,61 +1866,64 @@
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-50900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-40700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-35800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-36700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-36600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-34800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-53700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-34100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-21100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-20100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-98000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-68100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-87800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-500</v>
       </c>
       <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
+      <c r="T27" s="3">
+        <v>-500</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2154,31 +2224,31 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>81300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>59800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3600</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
@@ -2186,61 +2256,64 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-50900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-40700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-35800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-36700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-36600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-34800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-53700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-34100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-21100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-98000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-68100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-87800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-500</v>
       </c>
       <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
+      <c r="T33" s="3">
+        <v>-500</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,61 +2386,64 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-50900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-40700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-35800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-36700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-36600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-34800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-53700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-34100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-21100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-98000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-68100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-87800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-500</v>
       </c>
       <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
+      <c r="T35" s="3">
+        <v>-500</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,53 +2573,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>196800</v>
+      </c>
+      <c r="E41" s="3">
         <v>207400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>138100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>183300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>224600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>209700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>238000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>287500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>226400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>247300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>256700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>243800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>74500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>82900</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,53 +2831,56 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1600</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2797,53 +2896,56 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>197800</v>
+      </c>
+      <c r="E46" s="3">
         <v>209300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>145700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>186500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>225300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>211300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>242800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>291400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>227200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>248700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>261800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>255600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>77700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>84500</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,49 +3026,52 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E48" s="3">
         <v>3400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1400</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3181,7 +3301,7 @@
         <v>800</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -3190,7 +3310,7 @@
         <v>300</v>
       </c>
       <c r="I52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
@@ -3205,17 +3325,17 @@
         <v>400</v>
       </c>
       <c r="N52" s="3">
+        <v>400</v>
+      </c>
+      <c r="O52" s="3">
         <v>200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,53 +3416,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>201900</v>
+      </c>
+      <c r="E54" s="3">
         <v>213500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>149000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>189400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>228400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>214600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>246400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>295100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>230900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>252400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>263900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>257200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>79700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>84900</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,53 +3533,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E57" s="3">
         <v>5800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>16800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3465,13 +3596,16 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3483,35 +3617,35 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>10300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>95200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>92700</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3527,53 +3661,56 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E59" s="3">
         <v>15300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>22200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>31400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>17300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>111800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>51600</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3589,53 +3726,56 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E60" s="3">
         <v>21100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>27800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>39600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>40800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>55500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>207500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>144800</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,53 +3791,56 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>196700</v>
+      </c>
+      <c r="E61" s="3">
         <v>190500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>91000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>89700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>88300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>37300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>35600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>39600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>41100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>44900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>45900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>22800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3713,52 +3856,55 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E62" s="3">
         <v>8900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2700</v>
-      </c>
-      <c r="O62" s="3">
-        <v>2100</v>
       </c>
       <c r="P62" s="3">
         <v>2100</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
+      <c r="Q62" s="3">
+        <v>2100</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,53 +4116,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>228400</v>
+      </c>
+      <c r="E66" s="3">
         <v>220500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>111000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>117300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>124900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>82500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>82000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>100800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>74500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>64000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>55200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>232200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>169300</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,53 +4466,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-672000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-621000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-570000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-529400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-493500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-456900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-420300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-385500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-331800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-297700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-276600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-256400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-158400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-90300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,53 +4726,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-7000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>38000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>72200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>103500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>132100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>164300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>194300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>156400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>188400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>208700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>228000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-152500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-84400</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,128 +4856,134 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-50900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-40700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-35800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-36700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-36600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-34800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-53700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-34100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-21100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-98000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-68100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-87800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-500</v>
       </c>
       <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
+      <c r="T81" s="3">
+        <v>-500</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,13 +5018,14 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -4856,25 +5055,25 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-25700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-45100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-41400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-29100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-28400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-49800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-28200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-23400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,47 +5498,48 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5331,8 +5552,8 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,61 +5691,64 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-25100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>24600</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>44000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>89500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>25000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>192800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>113200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>1100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E102" s="3">
         <v>69300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-45200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-41400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-28300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-49500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>61100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-20900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>12900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>169300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>82800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
   <si>
     <t>PHAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,103 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -822,8 +825,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +893,11 @@
       <c r="W9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +961,11 @@
       <c r="W10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,61 +989,62 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E12" s="3">
         <v>19000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>18800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>13600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>41700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>25800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>15900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>12700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>81700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
+      <c r="T12" s="3">
+        <v>0</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
@@ -1042,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1123,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1121,15 +1140,15 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1142,8 +1161,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1172,8 +1191,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,64 +1284,65 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E17" s="3">
         <v>42500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>45400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>37900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>33000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>35300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>33600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>52400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>32800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>83000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>500</v>
       </c>
       <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>3</v>
+      <c r="U17" s="3">
+        <v>500</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
@@ -1324,8 +1350,11 @@
       <c r="W17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,55 +1362,55 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-45400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-37900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-33000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-35100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-35300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-33600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-52400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-32800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-20000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-20400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-15700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-83000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-500</v>
       </c>
       <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>3</v>
+      <c r="U18" s="3">
+        <v>-500</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
@@ -1389,8 +1418,11 @@
       <c r="W18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1446,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,11 +1456,11 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1447,31 +1480,31 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-81300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-59800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3600</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>3</v>
+      <c r="U20" s="3">
+        <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>3</v>
@@ -1479,8 +1512,11 @@
       <c r="W20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,50 +1524,50 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-41600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-45100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-37800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-32900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-35000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-35200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-33400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-52300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-32700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-19800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-19400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-97000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
         <v>-1200</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1544,28 +1580,31 @@
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E22" s="3">
         <v>9300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2800</v>
       </c>
       <c r="G22" s="3">
         <v>2800</v>
       </c>
       <c r="H22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I22" s="3">
         <v>1500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1300</v>
       </c>
       <c r="J22" s="3">
         <v>1300</v>
@@ -1580,28 +1619,28 @@
         <v>1300</v>
       </c>
       <c r="N22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>3</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
@@ -1609,64 +1648,67 @@
       <c r="W22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-51100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-50900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-40700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-35800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-36700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-36600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-34800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-53700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-34100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-21100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-98000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-68100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-87800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-500</v>
       </c>
       <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>3</v>
+      <c r="U23" s="3">
+        <v>-500</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
@@ -1674,8 +1716,11 @@
       <c r="W23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1784,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,64 +1852,67 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-51100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-50900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-40700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-35800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-36700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-36600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-34800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-53700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-34100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-21100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-98000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-68100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-87800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-500</v>
       </c>
       <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>3</v>
+      <c r="U26" s="3">
+        <v>-500</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
@@ -1869,64 +1920,67 @@
       <c r="W26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-51100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-50900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-40700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-35800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-36700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-36600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-34800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-53700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-34100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-21100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-98000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-68100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-87800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-500</v>
       </c>
       <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>3</v>
+      <c r="U27" s="3">
+        <v>-500</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
@@ -1934,8 +1988,11 @@
       <c r="W27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2124,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2260,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,11 +2272,11 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2227,31 +2296,31 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>81300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>59800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3600</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>3</v>
+      <c r="U32" s="3">
+        <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>3</v>
@@ -2259,64 +2328,67 @@
       <c r="W32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-51100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-50900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-40700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-35800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-36700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-36600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-34800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-53700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-34100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-21100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-98000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-68100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-87800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-500</v>
       </c>
       <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>3</v>
+      <c r="U33" s="3">
+        <v>-500</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
@@ -2324,8 +2396,11 @@
       <c r="W33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,64 +2464,67 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-51100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-50900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-40700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-35800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-36700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-36600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-34800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-53700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-34100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-21100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-98000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-68100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-87800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-500</v>
       </c>
       <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>3</v>
+      <c r="U35" s="3">
+        <v>-500</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
@@ -2454,78 +2532,84 @@
       <c r="W35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,56 +2659,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>155400</v>
+      </c>
+      <c r="E41" s="3">
         <v>196800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>207400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>138100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>183300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>224600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>209700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>238000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>287500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>226400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>247300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>256700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>243800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>74500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>82900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2639,8 +2725,11 @@
       <c r="W41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2793,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2861,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,56 +2929,59 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1600</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,56 +2997,59 @@
       <c r="W45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>160500</v>
+      </c>
+      <c r="E46" s="3">
         <v>197800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>209300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>145700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>186500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>225300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>211300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>242800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>291400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>227200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>248700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>261800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>255600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>77700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>84500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3065,11 @@
       <c r="W46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,52 +3133,55 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E48" s="3">
         <v>3300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1400</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
@@ -3094,8 +3201,11 @@
       <c r="W48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3269,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3405,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3304,7 +3423,7 @@
         <v>800</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -3313,7 +3432,7 @@
         <v>300</v>
       </c>
       <c r="J52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
@@ -3328,17 +3447,17 @@
         <v>400</v>
       </c>
       <c r="O52" s="3">
+        <v>400</v>
+      </c>
+      <c r="P52" s="3">
         <v>200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3473,11 @@
       <c r="W52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,56 +3541,59 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>164800</v>
+      </c>
+      <c r="E54" s="3">
         <v>201900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>213500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>149000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>189400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>228400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>214600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>246400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>295100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>230900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>252400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>263900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>257200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>79700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>84900</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3484,8 +3609,11 @@
       <c r="W54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,56 +3663,57 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3599,17 +3729,20 @@
       <c r="W57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
@@ -3620,35 +3753,35 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>10300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>95200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>92700</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3664,56 +3797,59 @@
       <c r="W58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E59" s="3">
         <v>14800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>22200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>23900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>18200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>31400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>17300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>111800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>51600</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3729,56 +3865,59 @@
       <c r="W59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E60" s="3">
         <v>22900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>27800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>39600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>40800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>55500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>27700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>207500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>144800</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3794,56 +3933,59 @@
       <c r="W60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>204800</v>
+      </c>
+      <c r="E61" s="3">
         <v>196700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>190500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>91000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>89700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>88300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>37300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>35600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>39600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>41100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>44900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>45900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>22800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3859,55 +4001,58 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E62" s="3">
         <v>8700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2700</v>
-      </c>
-      <c r="P62" s="3">
-        <v>2100</v>
       </c>
       <c r="Q62" s="3">
         <v>2100</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>3</v>
+      <c r="R62" s="3">
+        <v>2100</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>3</v>
@@ -3924,8 +4069,11 @@
       <c r="W62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,56 +4273,59 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>239600</v>
+      </c>
+      <c r="E66" s="3">
         <v>228400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>220500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>111000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>117300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>124900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>82500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>82000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>100800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>74500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>64000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>55200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>232200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>169300</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4184,8 +4341,11 @@
       <c r="W66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,56 +4639,59 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-727100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-672000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-621000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-570000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-529400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-493500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-456900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-420300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-385500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-331800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-297700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-276600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-256400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-158400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-90300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4534,8 +4707,11 @@
       <c r="W72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,56 +4911,59 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-26400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-7000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>38000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>72200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>103500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>132100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>164300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>194300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>156400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>188400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>208700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>228000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-152500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-84400</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4794,8 +4979,11 @@
       <c r="W76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,134 +5047,140 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-51100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-50900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-40700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-35800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-36700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-36600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-34800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-53700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-34100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-21100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-98000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-68100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-87800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-500</v>
       </c>
       <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>3</v>
+      <c r="U81" s="3">
+        <v>-500</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
@@ -4994,8 +5188,11 @@
       <c r="W81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5216,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5028,7 +5226,7 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -5058,25 +5256,25 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5084,8 +5282,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-35000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-25700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-45100</v>
       </c>
-      <c r="G89" s="3">
-        <v>-41400</v>
-      </c>
       <c r="H89" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-29100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-28400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-49800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-28200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-20700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-23400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,50 +5718,51 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5555,8 +5775,8 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -5564,8 +5784,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,64 +5920,67 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-25100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>3</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
@@ -5759,8 +5988,11 @@
       <c r="W94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6286,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>24600</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>44000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>89500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>25000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>192800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>113200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>1100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6422,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>69300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-45200</v>
       </c>
-      <c r="G102" s="3">
-        <v>-41400</v>
-      </c>
       <c r="H102" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="I102" s="3">
         <v>14900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-28300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-49500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>61100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-20900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>169300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>82800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>PHAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,107 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -896,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,64 +1003,65 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E12" s="3">
         <v>15900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>18800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>13600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>41700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>25800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>15900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>12700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>81700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>3</v>
+      <c r="U12" s="3">
+        <v>0</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
@@ -1058,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1143,15 +1163,15 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1164,8 +1184,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1194,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,67 +1311,68 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E17" s="3">
         <v>46600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>42500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>45400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>37900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>33000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>35100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>35300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>33600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>52400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>32800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>83000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>500</v>
       </c>
       <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>3</v>
+      <c r="V17" s="3">
+        <v>500</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>3</v>
@@ -1353,8 +1380,11 @@
       <c r="X17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1362,58 +1392,58 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-42500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-45400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-37900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-33000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-35100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-35300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-33600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-52400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-32800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-20000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-20400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-83000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-500</v>
       </c>
       <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>3</v>
+      <c r="V18" s="3">
+        <v>-500</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>3</v>
@@ -1421,8 +1451,11 @@
       <c r="X18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1456,14 +1490,14 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1483,31 +1517,31 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-81300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-59800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3600</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>3</v>
+      <c r="V20" s="3">
+        <v>0</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>3</v>
@@ -1515,8 +1549,11 @@
       <c r="X20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1524,53 +1561,53 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-45300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-41600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-45100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-37800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-32900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-35000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-35200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-33400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-52300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-32700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-19800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-19400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-97000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
         <v>-1200</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1583,31 +1620,34 @@
       <c r="X21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E22" s="3">
         <v>9600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2800</v>
       </c>
       <c r="H22" s="3">
         <v>2800</v>
       </c>
       <c r="I22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J22" s="3">
         <v>1500</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1300</v>
       </c>
       <c r="K22" s="3">
         <v>1300</v>
@@ -1622,28 +1662,28 @@
         <v>1300</v>
       </c>
       <c r="O22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>3</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>3</v>
@@ -1651,67 +1691,70 @@
       <c r="X22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-55000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-51100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-50900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-40700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-35800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-36700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-36600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-34800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-53700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-34100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-21100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-98000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-68100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-87800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-500</v>
       </c>
       <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>3</v>
+      <c r="V23" s="3">
+        <v>-500</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>3</v>
@@ -1719,8 +1762,11 @@
       <c r="X23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1787,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,67 +1904,70 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-55000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-51100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-50900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-40700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-35800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-36700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-36600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-34800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-53700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-34100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-21100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-20100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-98000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-68100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-87800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-500</v>
       </c>
       <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>3</v>
+      <c r="V26" s="3">
+        <v>-500</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>3</v>
@@ -1923,67 +1975,70 @@
       <c r="X26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-55000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-51100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-50900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-40700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-35800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-36700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-36600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-34800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-53700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-34100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-21100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-20100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-98000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-68100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-87800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-500</v>
       </c>
       <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>3</v>
+      <c r="V27" s="3">
+        <v>-500</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>3</v>
@@ -1991,8 +2046,11 @@
       <c r="X27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2127,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2272,14 +2342,14 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2299,31 +2369,31 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>81300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>59800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3600</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>3</v>
+      <c r="V32" s="3">
+        <v>0</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>3</v>
@@ -2331,67 +2401,70 @@
       <c r="X32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-55000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-51100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-50900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-40700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-35800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-36700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-36600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-34800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-53700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-34100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-21100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-98000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-68100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-87800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-500</v>
       </c>
       <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
+      <c r="V33" s="3">
+        <v>-500</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>3</v>
@@ -2399,8 +2472,11 @@
       <c r="X33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,67 +2543,70 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-55000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-51100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-50900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-40700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-35800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-36700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-36600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-34800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-53700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-34100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-21100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-98000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-68100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-87800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-500</v>
       </c>
       <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>3</v>
+      <c r="V35" s="3">
+        <v>-500</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>3</v>
@@ -2535,81 +2614,87 @@
       <c r="X35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,59 +2746,60 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>129600</v>
+      </c>
+      <c r="E41" s="3">
         <v>155400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>196800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>207400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>138100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>183300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>224600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>209700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>238000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>287500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>226400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>247300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>256700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>243800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>74500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>82900</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2728,8 +2815,11 @@
       <c r="X41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2796,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2864,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2932,59 +3028,62 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E45" s="3">
         <v>5100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1600</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3000,59 +3099,62 @@
       <c r="X45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>139800</v>
+      </c>
+      <c r="E46" s="3">
         <v>160500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>197800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>209300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>145700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>186500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>225300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>211300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>242800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>291400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>227200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>248700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>261800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>255600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>77700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>84500</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3068,8 +3170,11 @@
       <c r="X46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3136,55 +3241,58 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E48" s="3">
         <v>3500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1400</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
+      <c r="R48" s="3">
+        <v>0</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
@@ -3204,8 +3312,11 @@
       <c r="X48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3272,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3426,7 +3546,7 @@
         <v>800</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
@@ -3435,7 +3555,7 @@
         <v>300</v>
       </c>
       <c r="K52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
@@ -3450,17 +3570,17 @@
         <v>400</v>
       </c>
       <c r="P52" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q52" s="3">
         <v>200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3476,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,59 +3667,62 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E54" s="3">
         <v>164800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>201900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>213500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>149000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>189400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>228400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>214600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>246400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>295100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>230900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>252400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>263900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>257200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>79700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>84900</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3612,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,59 +3794,60 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E57" s="3">
         <v>10000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3732,20 +3863,23 @@
       <c r="X57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -3756,35 +3890,35 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>10300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1400</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>95200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>92700</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3800,59 +3934,62 @@
       <c r="X58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E59" s="3">
         <v>16200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>15300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>22200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>23900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>18200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>31400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>17300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>111800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>51600</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,59 +4005,62 @@
       <c r="X59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E60" s="3">
         <v>26200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>22900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>21100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>27800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>39600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>40800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>55500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>27700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>207500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>144800</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,59 +4076,62 @@
       <c r="X60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>211300</v>
+      </c>
+      <c r="E61" s="3">
         <v>204800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>196700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>190500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>91000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>89700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>88300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>37300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>39600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>41100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>44900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>45900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>22800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22400</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4004,58 +4147,61 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E62" s="3">
         <v>8600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>2100</v>
       </c>
       <c r="R62" s="3">
         <v>2100</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>3</v>
+      <c r="S62" s="3">
+        <v>2100</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>3</v>
@@ -4072,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,59 +4431,62 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>234200</v>
+      </c>
+      <c r="E66" s="3">
         <v>239600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>228400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>220500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>111000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>117300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>124900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>82500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>82000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>100800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>74500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>64000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>55200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>29200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>232200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>169300</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4344,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,59 +4813,62 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-764900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-727100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-672000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-621000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-570000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-529400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-493500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-456900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-420300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-385500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-331800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-297700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-276600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-256400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-158400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-90300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4710,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,59 +5097,62 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-90200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-74800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-26400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-7000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>38000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>72200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>103500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>132100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>164300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>194300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>156400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>188400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>208700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>228000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-152500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-84400</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4982,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,140 +5239,146 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="W80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-55000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-51100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-50900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-40700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-35800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-36700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-36600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-34800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-53700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-34100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-21100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-98000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-68100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-87800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-500</v>
       </c>
       <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>3</v>
+      <c r="V81" s="3">
+        <v>-500</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>3</v>
@@ -5191,8 +5386,11 @@
       <c r="X81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,19 +5415,20 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -5259,25 +5458,25 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="V83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -5285,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-40700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-35000</v>
       </c>
-      <c r="F89" s="3">
-        <v>-25700</v>
-      </c>
       <c r="G89" s="3">
-        <v>-45100</v>
+        <v>-26100</v>
       </c>
       <c r="H89" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="I89" s="3">
         <v>-41300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-29100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-28400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-49800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-28200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-20700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-7100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,53 +5939,54 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
@@ -5778,8 +5999,8 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -5787,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,67 +6150,70 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-25100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>3</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>3</v>
@@ -5991,8 +6221,11 @@
       <c r="X94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>14100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>24600</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>95400</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>44000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>89500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>25000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>192800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>113200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>1100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6425,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-41100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10600</v>
       </c>
-      <c r="F102" s="3">
-        <v>69300</v>
-      </c>
       <c r="G102" s="3">
-        <v>-45200</v>
+        <v>69000</v>
       </c>
       <c r="H102" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="I102" s="3">
         <v>-41200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-28300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-49500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>61100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-20900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>169300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>82800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
   <si>
     <t>PHAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,67 +1017,68 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E12" s="3">
         <v>11500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>19000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>18800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>13600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>41700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>25800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>14900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>15900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>12700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>81700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>400</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>3</v>
+      <c r="V12" s="3">
+        <v>0</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>3</v>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1166,15 +1186,15 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1187,8 +1207,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,70 +1338,71 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E17" s="3">
         <v>30100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>46600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>42500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>45400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>37900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>33000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>35100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>35300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>33600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>52400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>32800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>83000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
-      </c>
-      <c r="U17" s="3">
-        <v>500</v>
       </c>
       <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>3</v>
+      <c r="W17" s="3">
+        <v>500</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>3</v>
@@ -1383,8 +1410,11 @@
       <c r="Y17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,61 +1422,61 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-46600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-42500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-45400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-37900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-33000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-35100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-35300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-33600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-52400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-32800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-20000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-20400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-15700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-6300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-83000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-500</v>
       </c>
       <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>3</v>
+      <c r="W18" s="3">
+        <v>-500</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>3</v>
@@ -1454,8 +1484,11 @@
       <c r="Y18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,17 +1524,17 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1520,31 +1554,31 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-81300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-59800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3600</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>3</v>
+      <c r="W20" s="3">
+        <v>0</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>3</v>
@@ -1552,8 +1586,11 @@
       <c r="Y20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,56 +1598,56 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-45300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-41600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-45100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-37800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-32900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-35000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-35200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-33400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-52300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-32700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-19800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-19400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-97000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
         <v>-1200</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1623,34 +1660,37 @@
       <c r="Y21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E22" s="3">
         <v>9200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2800</v>
       </c>
       <c r="I22" s="3">
         <v>2800</v>
       </c>
       <c r="J22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K22" s="3">
         <v>1500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1300</v>
       </c>
       <c r="L22" s="3">
         <v>1300</v>
@@ -1665,28 +1705,28 @@
         <v>1300</v>
       </c>
       <c r="P22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>3</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>3</v>
@@ -1694,70 +1734,73 @@
       <c r="Y22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-37800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-55000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-51100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-50900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-40700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-35800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-36700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-36600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-34800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-53700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-34100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-21100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-98000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-68100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-87800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-500</v>
       </c>
       <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>3</v>
+      <c r="W23" s="3">
+        <v>-500</v>
       </c>
       <c r="X23" s="3" t="s">
         <v>3</v>
@@ -1765,8 +1808,11 @@
       <c r="Y23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,70 +1956,73 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-37800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-55000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-51100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-50900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-40700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-35800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-36700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-36600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-34800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-53700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-34100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-21100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-98000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-68100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-87800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-500</v>
       </c>
       <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>3</v>
+      <c r="W26" s="3">
+        <v>-500</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>3</v>
@@ -1978,70 +2030,73 @@
       <c r="Y26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-37800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-55000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-51100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-50900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-40700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-35800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-36700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-36600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-34800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-53700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-34100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-21100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-98000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-68100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-87800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-500</v>
       </c>
       <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>3</v>
+      <c r="W27" s="3">
+        <v>-500</v>
       </c>
       <c r="X27" s="3" t="s">
         <v>3</v>
@@ -2049,8 +2104,11 @@
       <c r="Y27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,17 +2412,17 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2372,31 +2442,31 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>81300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>59800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3600</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>3</v>
+      <c r="W32" s="3">
+        <v>0</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>3</v>
@@ -2404,70 +2474,73 @@
       <c r="Y32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-37800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-55000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-51100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-50900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-40700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-35800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-36700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-36600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-34800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-53700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-34100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-21100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-98000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-68100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-87800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-500</v>
       </c>
       <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>3</v>
+      <c r="W33" s="3">
+        <v>-500</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>3</v>
@@ -2475,8 +2548,11 @@
       <c r="Y33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,70 +2622,73 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-37800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-55000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-51100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-50900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-40700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-35800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-36700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-36600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-34800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-53700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-34100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-21100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-98000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-68100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-87800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-500</v>
       </c>
       <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>3</v>
+      <c r="W35" s="3">
+        <v>-500</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>3</v>
@@ -2617,84 +2696,90 @@
       <c r="Y35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,62 +2833,63 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>248800</v>
+      </c>
+      <c r="E41" s="3">
         <v>129600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>155400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>196800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>207400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>138100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>183300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>224600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>209700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>238000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>287500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>226400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>247300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>256700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>243800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>74500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>82900</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,8 +2905,11 @@
       <c r="Y41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,31 +3053,34 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -3031,62 +3127,65 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E45" s="3">
         <v>10300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1600</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3102,62 +3201,65 @@
       <c r="Y45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>257700</v>
+      </c>
+      <c r="E46" s="3">
         <v>139800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>160500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>197800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>209300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>145700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>186500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>225300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>211300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>242800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>291400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>227200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>248700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>261800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>255600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>77700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>84500</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3173,8 +3275,11 @@
       <c r="Y46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,58 +3349,61 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1400</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
+      <c r="S48" s="3">
+        <v>0</v>
       </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,13 +3645,16 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>800</v>
+        <v>4300</v>
       </c>
       <c r="E52" s="3">
         <v>800</v>
@@ -3549,7 +3669,7 @@
         <v>800</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
@@ -3558,7 +3678,7 @@
         <v>300</v>
       </c>
       <c r="L52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M52" s="3">
         <v>400</v>
@@ -3573,17 +3693,17 @@
         <v>400</v>
       </c>
       <c r="Q52" s="3">
+        <v>400</v>
+      </c>
+      <c r="R52" s="3">
         <v>200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>300</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,62 +3793,65 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E54" s="3">
         <v>144000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>164800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>201900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>213500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>149000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>189400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>228400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>214600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>246400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>295100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>230900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>252400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>263900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>257200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>79700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>84900</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,62 +3925,63 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3866,23 +3997,26 @@
       <c r="Y57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>300</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -3893,35 +4027,35 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>10300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1400</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>95200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>92700</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3937,62 +4071,65 @@
       <c r="Y58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E59" s="3">
         <v>9600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>22200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>18200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>31400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>17300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>111800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>51600</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4008,62 +4145,65 @@
       <c r="Y59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E60" s="3">
         <v>14400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>26200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>21100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>27800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>39600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>40800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>55500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>27700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>207500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>144800</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4079,62 +4219,65 @@
       <c r="Y60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>217600</v>
+      </c>
+      <c r="E61" s="3">
         <v>211300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>204800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>196700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>190500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>91000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>89700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>88300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>39600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>41100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>44900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>45900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22400</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4150,61 +4293,64 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E62" s="3">
         <v>8400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2700</v>
-      </c>
-      <c r="R62" s="3">
-        <v>2100</v>
       </c>
       <c r="S62" s="3">
         <v>2100</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>3</v>
+      <c r="T62" s="3">
+        <v>2100</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>3</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,62 +4589,65 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>247400</v>
+      </c>
+      <c r="E66" s="3">
         <v>234200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>239600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>228400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>220500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>111000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>117300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>124900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>82500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>82000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>100800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>74500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>64000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>55200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>29200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>232200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>169300</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,62 +4987,65 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-805900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-764900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-727100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-672000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-621000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-570000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-529400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-493500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-456900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-420300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-385500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-331800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-297700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-276600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-256400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-158400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-90300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,62 +5283,65 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-90200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-74800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-26400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-7000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>38000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>72200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>103500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>132100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>164300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>194300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>156400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>188400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>208700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>228000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-152500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-84400</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5171,8 +5357,11 @@
       <c r="Y76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,146 +5431,152 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="X80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-37800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-55000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-51100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-50900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-40700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-35800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-36700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-36600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-34800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-53700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-34100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-21100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-98000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-68100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-87800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-500</v>
       </c>
       <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>3</v>
+      <c r="W81" s="3">
+        <v>-500</v>
       </c>
       <c r="X81" s="3" t="s">
         <v>3</v>
@@ -5389,8 +5584,11 @@
       <c r="Y81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5425,13 +5624,13 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -5461,25 +5660,25 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>3</v>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
+      <c r="W83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-39700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-40700</v>
       </c>
-      <c r="F89" s="3">
-        <v>-35000</v>
-      </c>
       <c r="G89" s="3">
-        <v>-26100</v>
+        <v>-35400</v>
       </c>
       <c r="H89" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-44800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-41300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-29100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-28400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-49800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-28200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-20700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-23400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,56 +6160,57 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6002,8 +6223,8 @@
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="W91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,70 +6380,73 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-25100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>3</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>3</v>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>141500</v>
+      </c>
+      <c r="E100" s="3">
         <v>14100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>24600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>95400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>44000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>89500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>25000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>192800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>113200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>1100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>119300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-25800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-41100</v>
       </c>
-      <c r="F102" s="3">
-        <v>-10600</v>
-      </c>
       <c r="G102" s="3">
-        <v>69000</v>
+        <v>-10900</v>
       </c>
       <c r="H102" s="3">
+        <v>69300</v>
+      </c>
+      <c r="I102" s="3">
         <v>-44800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-41200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-28300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-49500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>61100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-20900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>169300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>82800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PHAT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
   <si>
     <t>PHAT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,70 +1031,71 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E12" s="3">
         <v>12800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>11500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>19000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>18800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>17700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>13600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>41700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>25800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>14900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>15900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>12700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>81700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>400</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>3</v>
+      <c r="W12" s="3">
+        <v>0</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>3</v>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1189,15 +1209,15 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1210,8 +1230,8 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,73 +1365,74 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E17" s="3">
         <v>31700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>30100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>46600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>42500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>45400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>37900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>33000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>35100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>35300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>33600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>52400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>32800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>15700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>83000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1200</v>
-      </c>
-      <c r="V17" s="3">
-        <v>500</v>
       </c>
       <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>3</v>
+      <c r="X17" s="3">
+        <v>500</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1440,11 @@
       <c r="Z17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,64 +1452,64 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-30100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-46600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-42500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-45400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-37900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-33000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-35100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-35300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-33600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-52400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-32800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-20400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-15700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-6300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-83000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-500</v>
       </c>
       <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>3</v>
+      <c r="X18" s="3">
+        <v>-500</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>3</v>
@@ -1487,8 +1517,11 @@
       <c r="Z18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,20 +1558,20 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1557,31 +1591,31 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-81300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-59800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3600</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>3</v>
+      <c r="X20" s="3">
+        <v>0</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>3</v>
@@ -1589,8 +1623,11 @@
       <c r="Z20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1598,59 +1635,59 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-28500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-45300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-41600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-45100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-37800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-32900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-35000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-35200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-33400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-52300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-32700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-19400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-97000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
         <v>-1200</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1663,37 +1700,40 @@
       <c r="Z21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E22" s="3">
         <v>9600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2800</v>
       </c>
       <c r="J22" s="3">
         <v>2800</v>
       </c>
       <c r="K22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L22" s="3">
         <v>1500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1300</v>
       </c>
       <c r="M22" s="3">
         <v>1300</v>
@@ -1708,28 +1748,28 @@
         <v>1300</v>
       </c>
       <c r="Q22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R22" s="3">
         <v>700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1100</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>3</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>3</v>
@@ -1737,73 +1777,76 @@
       <c r="Z22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-41000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-37800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-55000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-51100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-50900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-40700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-35800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-36700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-36600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-34800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-53700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-34100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-98000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-68100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-87800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1300</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-500</v>
       </c>
       <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>3</v>
+      <c r="X23" s="3">
+        <v>-500</v>
       </c>
       <c r="Y23" s="3" t="s">
         <v>3</v>
@@ -1811,8 +1854,11 @@
       <c r="Z23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,73 +2008,76 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-41000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-37800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-55000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-51100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-50900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-40700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-35800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-36700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-36600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-34800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-53700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-34100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-98000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-68100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-87800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1300</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-500</v>
       </c>
       <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>3</v>
+      <c r="X26" s="3">
+        <v>-500</v>
       </c>
       <c r="Y26" s="3" t="s">
         <v>3</v>
@@ -2033,73 +2085,76 @@
       <c r="Z26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-41000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-37800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-55000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-51100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-50900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-40700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-35800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-36700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-36600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-34800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-53700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-34100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-20100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-98000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-68100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-87800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1300</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-500</v>
       </c>
       <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>3</v>
+      <c r="X27" s="3">
+        <v>-500</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>3</v>
@@ -2107,8 +2162,11 @@
       <c r="Z27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,20 +2482,20 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2445,31 +2515,31 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>81300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>59800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3600</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>3</v>
+      <c r="X32" s="3">
+        <v>0</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>3</v>
@@ -2477,73 +2547,76 @@
       <c r="Z32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-41000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-37800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-55000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-51100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-50900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-40700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-35800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-36700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-36600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-34800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-53700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-34100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-98000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-68100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-87800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-500</v>
       </c>
       <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>3</v>
+      <c r="X33" s="3">
+        <v>-500</v>
       </c>
       <c r="Y33" s="3" t="s">
         <v>3</v>
@@ -2551,8 +2624,11 @@
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,73 +2701,76 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-41000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-37800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-55000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-51100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-50900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-40700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-35800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-36700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-36600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-34800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-53700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-34100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-98000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-68100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-87800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-500</v>
       </c>
       <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>3</v>
+      <c r="X35" s="3">
+        <v>-500</v>
       </c>
       <c r="Y35" s="3" t="s">
         <v>3</v>
@@ -2699,87 +2778,93 @@
       <c r="Z35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,65 +2920,66 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>213700</v>
+      </c>
+      <c r="E41" s="3">
         <v>248800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>129600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>155400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>196800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>207400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>138100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>183300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>224600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>209700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>238000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>287500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>226400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>247300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>256700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>243800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>74500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>82900</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2908,8 +2995,11 @@
       <c r="Z41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,16 +3149,19 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
+      <c r="E44" s="3">
+        <v>100</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -3082,8 +3178,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -3130,65 +3226,68 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E45" s="3">
         <v>8800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1600</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
@@ -3204,65 +3303,68 @@
       <c r="Z45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>226700</v>
+      </c>
+      <c r="E46" s="3">
         <v>257700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>139800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>160500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>197800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>209300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>145700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>186500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>225300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>211300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>242800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>291400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>227200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>248700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>261800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>255600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>77700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>84500</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,61 +3457,64 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E48" s="3">
         <v>3000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1400</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3" t="s">
-        <v>3</v>
+      <c r="T48" s="3">
+        <v>0</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>3</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,16 +3765,19 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E52" s="3">
         <v>4300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>800</v>
       </c>
       <c r="F52" s="3">
         <v>800</v>
@@ -3672,7 +3792,7 @@
         <v>800</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -3681,7 +3801,7 @@
         <v>300</v>
       </c>
       <c r="M52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N52" s="3">
         <v>400</v>
@@ -3696,17 +3816,17 @@
         <v>400</v>
       </c>
       <c r="R52" s="3">
+        <v>400</v>
+      </c>
+      <c r="S52" s="3">
         <v>200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>300</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,65 +3919,68 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E54" s="3">
         <v>265000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>144000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>164800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>201900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>213500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>149000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>189400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>228400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>214600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>246400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>295100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>230900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>252400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>263900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>257200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>79700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>84900</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3870,8 +3996,11 @@
       <c r="Z54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,65 +4056,66 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>10900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>16800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
@@ -4000,26 +4131,29 @@
       <c r="Z57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -4030,35 +4164,35 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>10300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1400</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>95200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>92700</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
@@ -4074,65 +4208,68 @@
       <c r="Z58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E59" s="3">
         <v>17100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>15300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>22200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>18200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>31400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>17300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>111800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>51600</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
@@ -4148,65 +4285,68 @@
       <c r="Z59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E60" s="3">
         <v>21500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>22900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>21100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>11400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>27800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>39600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>40800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>55500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>27700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>207500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>144800</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
@@ -4222,65 +4362,68 @@
       <c r="Z60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>222700</v>
+      </c>
+      <c r="E61" s="3">
         <v>217600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>211300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>204800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>196700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>190500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>91000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>89700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>88300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>37300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>39600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>41100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>44900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>45900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>22400</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4296,64 +4439,67 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E62" s="3">
         <v>8300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2700</v>
-      </c>
-      <c r="S62" s="3">
-        <v>2100</v>
       </c>
       <c r="T62" s="3">
         <v>2100</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>3</v>
+      <c r="U62" s="3">
+        <v>2100</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>3</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,65 +4747,68 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>254800</v>
+      </c>
+      <c r="E66" s="3">
         <v>247400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>234200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>239600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>228400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>220500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>111000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>117300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>124900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>82500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>82000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>100800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>74500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>64000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>55200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>29200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>232200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>169300</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,65 +5161,68 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-849100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-805900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-764900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-727100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-672000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-621000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-570000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-529400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-493500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-456900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-420300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-385500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-331800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-297700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-276600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-256400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-158400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-90300</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,65 +5469,68 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E76" s="3">
         <v>17600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-90200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-74800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-26400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-7000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>38000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>72200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>103500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>132100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>164300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>194300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>156400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>188400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>208700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>228000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-152500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-84400</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
@@ -5360,8 +5546,11 @@
       <c r="Z76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,152 +5623,158 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Y80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-41000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-37800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-55000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-51100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-50900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-40700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-35800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-36700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-36600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-34800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-53700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-34100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-98000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-68100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-87800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-500</v>
       </c>
       <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>3</v>
+      <c r="X81" s="3">
+        <v>-500</v>
       </c>
       <c r="Y81" s="3" t="s">
         <v>3</v>
@@ -5587,8 +5782,11 @@
       <c r="Z81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5627,13 +5826,13 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -5663,25 +5862,25 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>3</v>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
+      <c r="X83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-39700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-40700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-35400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-25700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-44800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-41300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-29100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-28400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-49800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-28200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-20700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-11400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-23400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,59 +6381,60 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
@@ -6226,8 +6447,8 @@
       <c r="W91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,73 +6610,76 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-25100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>3</v>
+      <c r="X94" s="3">
+        <v>0</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>3</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>141500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>14100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>24600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>95400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>44000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>89500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>25000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>192800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>113200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>1100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E102" s="3">
         <v>119300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-25800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-41100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>69300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-44800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-41200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-28300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-49500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>61100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-20900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>169300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>82800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Y102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Z102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
